--- a/test_sheet.xlsx
+++ b/test_sheet.xlsx
@@ -1,103 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dding/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAD1B47-49ED-D540-94D6-5F7A8FD71FAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main_sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main_sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>link1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>link2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>link3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>link4</t>
-  </si>
-  <si>
-    <t>c1, c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2, c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3, c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c5, c6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,8 +431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -443,76 +444,133 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>c1, c2</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>link1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>c2, c3</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>link2</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>c3, c4</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>link3</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2013</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pose estimation from emg signal with deep-learning</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>deep-learning, emg, pose estimation</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>virtual author</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>https://test.com</t>
+        </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pose estimation from emg signal with deep-learning</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>deep-learning, emg, pose estimation</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>virtual author</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>https://test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_sheet.xlsx
+++ b/test_sheet.xlsx
@@ -1,41 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dding/Desktop/PaperManager/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B905C-D694-464B-B47C-005ECFFF5FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23600" yWindow="500" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="main_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>link1</t>
+  </si>
+  <si>
+    <t>link2</t>
+  </si>
+  <si>
+    <t>pose estimation from emg signal with deep-learning</t>
+  </si>
+  <si>
+    <t>deep-learning, emg, pose estimation</t>
+  </si>
+  <si>
+    <t>virtual author</t>
+  </si>
+  <si>
+    <t>https://test.com</t>
+  </si>
+  <si>
+    <t>memo4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Systematic Review and Meta-analysis of Robotic Gripper</t>
+  </si>
+  <si>
+    <t>gripper, robot, actuator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rigid 와 Soft Gripper 에 대한 전반적인 지식을 얻을 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slim-panel holographic video display</t>
+  </si>
+  <si>
+    <t>hologram, 3d display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jungkuwn An</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로그램 디스플레이의 여러 변수들과 최적의 성능을 위한 개선사항을 볼 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,87 +113,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,146 +434,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>c1, c2</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>link1</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>c2, c3</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>link2</t>
-        </is>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>c3, c4</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>link3</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>pose estimation from emg signal with deep-learning</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>deep-learning, emg, pose estimation</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>virtual author</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>https://test.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>pose estimation from emg signal with deep-learning</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>deep-learning, emg, pose estimation</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>virtual author</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>https://test.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>